--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ntng1-Lrrc4c.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ntng1-Lrrc4c.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,10 +519,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -531,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.06050633333333333</v>
+        <v>0.06050633333333334</v>
       </c>
       <c r="H2">
         <v>0.181519</v>
       </c>
       <c r="I2">
-        <v>0.5610889240584583</v>
+        <v>0.6173275744796626</v>
       </c>
       <c r="J2">
-        <v>0.5610889240584583</v>
+        <v>0.6173275744796626</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,10 +558,10 @@
         <v>0.669636</v>
       </c>
       <c r="O2">
-        <v>0.5882069786970897</v>
+        <v>0.9540047954114494</v>
       </c>
       <c r="P2">
-        <v>0.5882069786970897</v>
+        <v>0.9540047954114494</v>
       </c>
       <c r="Q2">
         <v>0.013505739676</v>
@@ -567,10 +570,10 @@
         <v>0.121551657084</v>
       </c>
       <c r="S2">
-        <v>0.3300364208008266</v>
+        <v>0.5889334663933168</v>
       </c>
       <c r="T2">
-        <v>0.3300364208008266</v>
+        <v>0.5889334663933168</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,13 +581,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -593,46 +596,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.06050633333333333</v>
+        <v>0.06050633333333334</v>
       </c>
       <c r="H3">
         <v>0.181519</v>
       </c>
       <c r="I3">
-        <v>0.5610889240584583</v>
+        <v>0.6173275744796626</v>
       </c>
       <c r="J3">
-        <v>0.5610889240584583</v>
+        <v>0.6173275744796626</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.1562666666666667</v>
+        <v>0.01076166666666667</v>
       </c>
       <c r="N3">
-        <v>0.4688</v>
+        <v>0.032285</v>
       </c>
       <c r="O3">
-        <v>0.4117930213029103</v>
+        <v>0.04599520458855057</v>
       </c>
       <c r="P3">
-        <v>0.4117930213029103</v>
+        <v>0.04599520458855057</v>
       </c>
       <c r="Q3">
-        <v>0.009455123022222222</v>
+        <v>0.0006511489905555556</v>
       </c>
       <c r="R3">
-        <v>0.08509610719999999</v>
+        <v>0.005860340915000001</v>
       </c>
       <c r="S3">
-        <v>0.2310525032576318</v>
+        <v>0.02839410808634577</v>
       </c>
       <c r="T3">
-        <v>0.2310525032576317</v>
+        <v>0.02839410808634577</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -640,31 +643,31 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.04733100000000001</v>
+        <v>0.0006813333333333333</v>
       </c>
       <c r="H4">
-        <v>0.141993</v>
+        <v>0.002044</v>
       </c>
       <c r="I4">
-        <v>0.4389110759415416</v>
+        <v>0.006951435178887225</v>
       </c>
       <c r="J4">
-        <v>0.4389110759415416</v>
+        <v>0.006951435178887225</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -679,22 +682,22 @@
         <v>0.669636</v>
       </c>
       <c r="O4">
-        <v>0.5882069786970897</v>
+        <v>0.9540047954114494</v>
       </c>
       <c r="P4">
-        <v>0.5882069786970897</v>
+        <v>0.9540047954114494</v>
       </c>
       <c r="Q4">
-        <v>0.010564847172</v>
+        <v>0.000152081776</v>
       </c>
       <c r="R4">
-        <v>0.09508362454800001</v>
+        <v>0.001368735984</v>
       </c>
       <c r="S4">
-        <v>0.2581705578962631</v>
+        <v>0.006631702495650259</v>
       </c>
       <c r="T4">
-        <v>0.258170557896263</v>
+        <v>0.006631702495650259</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -702,61 +705,185 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.0006813333333333333</v>
+      </c>
+      <c r="H5">
+        <v>0.002044</v>
+      </c>
+      <c r="I5">
+        <v>0.006951435178887225</v>
+      </c>
+      <c r="J5">
+        <v>0.006951435178887225</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.01076166666666667</v>
+      </c>
+      <c r="N5">
+        <v>0.032285</v>
+      </c>
+      <c r="O5">
+        <v>0.04599520458855057</v>
+      </c>
+      <c r="P5">
+        <v>0.04599520458855057</v>
+      </c>
+      <c r="Q5">
+        <v>7.332282222222222E-06</v>
+      </c>
+      <c r="R5">
+        <v>6.599053999999999E-05</v>
+      </c>
+      <c r="S5">
+        <v>0.0003197326832369655</v>
+      </c>
+      <c r="T5">
+        <v>0.0003197326832369655</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5">
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
         <v>2</v>
       </c>
-      <c r="F5">
+      <c r="F6">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G5">
-        <v>0.04733100000000001</v>
-      </c>
-      <c r="H5">
-        <v>0.141993</v>
-      </c>
-      <c r="I5">
-        <v>0.4389110759415416</v>
-      </c>
-      <c r="J5">
-        <v>0.4389110759415416</v>
-      </c>
-      <c r="K5">
+      <c r="G6">
+        <v>0.03682566666666667</v>
+      </c>
+      <c r="H6">
+        <v>0.110477</v>
+      </c>
+      <c r="I6">
+        <v>0.3757209903414501</v>
+      </c>
+      <c r="J6">
+        <v>0.3757209903414501</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.223212</v>
+      </c>
+      <c r="N6">
+        <v>0.669636</v>
+      </c>
+      <c r="O6">
+        <v>0.9540047954114494</v>
+      </c>
+      <c r="P6">
+        <v>0.9540047954114494</v>
+      </c>
+      <c r="Q6">
+        <v>0.008219930707999999</v>
+      </c>
+      <c r="R6">
+        <v>0.073979376372</v>
+      </c>
+      <c r="S6">
+        <v>0.3584396265224823</v>
+      </c>
+      <c r="T6">
+        <v>0.3584396265224823</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
         <v>2</v>
       </c>
-      <c r="L5">
+      <c r="F7">
         <v>0.6666666666666666</v>
       </c>
-      <c r="M5">
-        <v>0.1562666666666667</v>
-      </c>
-      <c r="N5">
-        <v>0.4688</v>
-      </c>
-      <c r="O5">
-        <v>0.4117930213029103</v>
-      </c>
-      <c r="P5">
-        <v>0.4117930213029103</v>
-      </c>
-      <c r="Q5">
-        <v>0.007396257600000001</v>
-      </c>
-      <c r="R5">
-        <v>0.0665663184</v>
-      </c>
-      <c r="S5">
-        <v>0.1807405180452785</v>
-      </c>
-      <c r="T5">
-        <v>0.1807405180452785</v>
+      <c r="G7">
+        <v>0.03682566666666667</v>
+      </c>
+      <c r="H7">
+        <v>0.110477</v>
+      </c>
+      <c r="I7">
+        <v>0.3757209903414501</v>
+      </c>
+      <c r="J7">
+        <v>0.3757209903414501</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.01076166666666667</v>
+      </c>
+      <c r="N7">
+        <v>0.032285</v>
+      </c>
+      <c r="O7">
+        <v>0.04599520458855057</v>
+      </c>
+      <c r="P7">
+        <v>0.04599520458855057</v>
+      </c>
+      <c r="Q7">
+        <v>0.0003963055494444445</v>
+      </c>
+      <c r="R7">
+        <v>0.003566749945</v>
+      </c>
+      <c r="S7">
+        <v>0.01728136381896783</v>
+      </c>
+      <c r="T7">
+        <v>0.01728136381896783</v>
       </c>
     </row>
   </sheetData>
